--- a/storage/templates/finalGradTemplate.xlsx
+++ b/storage/templates/finalGradTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="COURSE" localSheetId="0">#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>INSTITUT TEKNOLOGI BANDUNG</t>
   </si>
@@ -216,6 +217,36 @@
   </si>
   <si>
     <t>ENGINEERING PHYSICS PROGRAM</t>
+  </si>
+  <si>
+    <t>Tabel Grade</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -225,7 +256,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,8 +413,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,8 +457,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -515,6 +576,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -522,7 +609,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -792,9 +879,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -815,6 +899,32 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1243,8 +1353,8 @@
   </sheetPr>
   <dimension ref="A1:BE90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,15 +1378,15 @@
         <v>0</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -1323,23 +1433,23 @@
       <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
       <c r="S2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="T2" s="11"/>
-      <c r="U2" s="112" t="s">
+      <c r="U2" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
@@ -1374,23 +1484,23 @@
       <c r="I3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
       <c r="S3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="T3" s="14"/>
-      <c r="U3" s="113" t="s">
+      <c r="U3" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="16"/>
@@ -1540,12 +1650,12 @@
         <v>16</v>
       </c>
       <c r="R5" s="27"/>
-      <c r="S5" s="114" t="s">
+      <c r="S5" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
       <c r="W5" s="27"/>
       <c r="X5" s="27"/>
       <c r="Y5" s="27"/>
@@ -1604,10 +1714,10 @@
       <c r="S6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="115" t="s">
+      <c r="T6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="U6" s="116"/>
+      <c r="U6" s="115"/>
       <c r="V6" s="38" t="s">
         <v>20</v>
       </c>
@@ -2090,10 +2200,23 @@
       <c r="D14" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="109"/>
+      <c r="E14" s="122" t="e">
+        <f>(IFERROR(VLOOKUP(D6,Grade!$A$2:$B$10,2)*C6,0) +
+IFERROR(VLOOKUP(D7,Grade!$A$2:$B$10,2)*C7,0) +
+IFERROR(VLOOKUP(D8,Grade!$A$2:$B$10,2)*C8,0) +
+IFERROR(VLOOKUP(D9,Grade!$A$2:$B$10,2)*C9,0) +
+IFERROR(VLOOKUP(D10,Grade!$A$2:$B$10,2)*C10,0) +
+IFERROR(VLOOKUP(D11,Grade!$A$2:$B$10,2)*C11,0) +
+IFERROR(VLOOKUP(D12,Grade!$A$2:$B$10,2)*C12,0) +
+IFERROR(VLOOKUP(D13,Grade!$A$2:$B$10,2)*C13,0)) / C14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124" t="e">
+        <f>E14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="123"/>
       <c r="I14" s="25"/>
       <c r="J14" s="42"/>
       <c r="K14" s="43" t="s">
@@ -2106,10 +2229,23 @@
       <c r="M14" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="102"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="103"/>
+      <c r="N14" s="122" t="e">
+        <f>(IFERROR(VLOOKUP(M6,Grade!$A$2:$B$10,2)*L6,0) +
+IFERROR(VLOOKUP(M7,Grade!$A$2:$B$10,2)*L7,0) +
+IFERROR(VLOOKUP(M8,Grade!$A$2:$B$10,2)*L8,0) +
+IFERROR(VLOOKUP(M9,Grade!$A$2:$B$10,2)*L9,0) +
+IFERROR(VLOOKUP(M10,Grade!$A$2:$B$10,2)*L10,0) +
+IFERROR(VLOOKUP(M11,Grade!$A$2:$B$10,2)*L11,0) +
+IFERROR(VLOOKUP(M12,Grade!$A$2:$B$10,2)*L12,0) +
+IFERROR(VLOOKUP(M13,Grade!$A$2:$B$10,2)*L13,0)) / L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="123"/>
+      <c r="P14" s="124" t="e">
+        <f>((C14*E14)+(L14*N14))/(C14+L14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="125"/>
       <c r="R14" s="27"/>
       <c r="S14" s="104" t="s">
         <v>23</v>
@@ -2676,7 +2812,7 @@
         <v>144</v>
       </c>
       <c r="V22" s="35" t="str">
-        <f t="shared" ref="V22:V28" si="1">IF(T22&gt;=U22,"√","")</f>
+        <f t="shared" ref="V22:V27" si="1">IF(T22&gt;=U22,"√","")</f>
         <v/>
       </c>
       <c r="W22" s="27"/>
@@ -2934,9 +3070,22 @@
       <c r="D26" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="102"/>
+      <c r="E26" s="102" t="e">
+        <f>(IFERROR(VLOOKUP(D17,Grade!$A$2:$B$10,2)*C17,0) + IFERROR(VLOOKUP(D18,Grade!$A$2:$B$10,2)*C18,0) +
+IFERROR(VLOOKUP(D19,Grade!$A$2:$B$10,2)*C19,0) +
+IFERROR(VLOOKUP(D20,Grade!$A$2:$B$10,2)*C20,0) +
+IFERROR(VLOOKUP(D21,Grade!$A$2:$B$10,2)*C21,0) +
+IFERROR(VLOOKUP(D22,Grade!$A$2:$B$10,2)*C22,0) +
+IFERROR(VLOOKUP(D23,Grade!$A$2:$B$10,2)*C23,0) +
+IFERROR(VLOOKUP(D24,Grade!$A$2:$B$10,2)*C24,0) +
+IFERROR(VLOOKUP(D25,Grade!$A$2:$B$10,2)*C25,0)) / C26</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F26" s="103"/>
-      <c r="G26" s="102"/>
+      <c r="G26" s="102" t="e">
+        <f>((C14*E14)+(L14*N14)+(C26*E26))/(C14+L14+C26)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H26" s="103"/>
       <c r="I26" s="25"/>
       <c r="J26" s="42"/>
@@ -2950,9 +3099,22 @@
       <c r="M26" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="102"/>
+      <c r="N26" s="102" t="e">
+        <f>(IFERROR(VLOOKUP(M17,Grade!$A$2:$B$10,2)*L17,0) + IFERROR(VLOOKUP(M18,Grade!$A$2:$B$10,2)*L18,0) +
+IFERROR(VLOOKUP(M19,Grade!$A$2:$B$10,2)*L19,0) +
+IFERROR(VLOOKUP(M20,Grade!$A$2:$B$10,2)*L20,0) +
+IFERROR(VLOOKUP(M21,Grade!$A$2:$B$10,2)*L21,0) +
+IFERROR(VLOOKUP(M22,Grade!$A$2:$B$10,2)*L22,0) +
+IFERROR(VLOOKUP(M23,Grade!$A$2:$B$10,2)*L23,0) +
+IFERROR(VLOOKUP(M24,Grade!$A$2:$B$10,2)*L24,0) +
+IFERROR(VLOOKUP(M25,Grade!$A$2:$B$10,2)*L25,0)) / L26</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O26" s="103"/>
-      <c r="P26" s="102"/>
+      <c r="P26" s="102" t="e">
+        <f>((C14*E14)+(L14*N14)+(C26*E26)+(L26*N26))/(C14+L14+C26+L26)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q26" s="103"/>
       <c r="R26" s="50"/>
       <c r="S26" s="46" t="s">
@@ -2963,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="91">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V26" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3712,9 +3874,22 @@
       <c r="D38" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="102"/>
+      <c r="E38" s="102" t="e">
+        <f>(IFERROR(VLOOKUP(D29,Grade!$A$2:$B$10,2)*C29,0) + IFERROR(VLOOKUP(D30,Grade!$A$2:$B$10,2)*C30,0) +
+IFERROR(VLOOKUP(D31,Grade!$A$2:$B$10,2)*C31,0) +
+IFERROR(VLOOKUP(D32,Grade!$A$2:$B$10,2)*C32,0) +
+IFERROR(VLOOKUP(D33,Grade!$A$2:$B$10,2)*C33,0) +
+IFERROR(VLOOKUP(D34,Grade!$A$2:$B$10,2)*C34,0) +
+IFERROR(VLOOKUP(D35,Grade!$A$2:$B$10,2)*C35,0) +
+IFERROR(VLOOKUP(D36,Grade!$A$2:$B$10,2)*C36,0) +
+IFERROR(VLOOKUP(D37,Grade!$A$2:$B$10,2)*C37,0)) / C38</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F38" s="103"/>
-      <c r="G38" s="102"/>
+      <c r="G38" s="102" t="e">
+        <f>((C14*E14)+(L14*N14)+(C26*E26)+(L26*N26)+(C38*E38))/(C14+L14+C26+L26+C38)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H38" s="103"/>
       <c r="I38" s="25"/>
       <c r="J38" s="42"/>
@@ -3728,9 +3903,22 @@
       <c r="M38" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="N38" s="102"/>
+      <c r="N38" s="102" t="e">
+        <f>(IFERROR(VLOOKUP(M29,Grade!$A$2:$B$10,2)*L29,0) + IFERROR(VLOOKUP(M30,Grade!$A$2:$B$10,2)*L30,0) +
+IFERROR(VLOOKUP(M31,Grade!$A$2:$B$10,2)*L31,0) +
+IFERROR(VLOOKUP(M32,Grade!$A$2:$B$10,2)*L32,0) +
+IFERROR(VLOOKUP(M33,Grade!$A$2:$B$10,2)*L33,0) +
+IFERROR(VLOOKUP(M34,Grade!$A$2:$B$10,2)*L34,0) +
+IFERROR(VLOOKUP(M35,Grade!$A$2:$B$10,2)*L35,0) +
+IFERROR(VLOOKUP(M36,Grade!$A$2:$B$10,2)*L36,0) +
+IFERROR(VLOOKUP(M37,Grade!$A$2:$B$10,2)*L37,0)) / L38</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O38" s="103"/>
-      <c r="P38" s="102"/>
+      <c r="P38" s="102" t="e">
+        <f>((C14*E14)+(L14*N14)+(C26*E26)+(L26*N26)+(C38*E38)+(L38*N38))/(C14+L14+C26+L26+C38+L38)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q38" s="103"/>
       <c r="R38" s="27"/>
       <c r="S38" s="94" t="s">
@@ -4597,9 +4785,22 @@
       <c r="D52" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="102"/>
+      <c r="E52" s="102" t="e">
+        <f>(IFERROR(VLOOKUP(D41,Grade!$A$2:$B$10,2)*C41,0) + IFERROR(VLOOKUP(D42,Grade!$A$2:$B$10,2)*C42,0) + IFERROR(VLOOKUP(D43,Grade!$A$2:$B$10,2)*C43,0) + IFERROR(VLOOKUP(D44,Grade!$A$2:$B$10,2)*C44,0) +
+IFERROR(VLOOKUP(D45,Grade!$A$2:$B$10,2)*C45,0) +
+IFERROR(VLOOKUP(D46,Grade!$A$2:$B$10,2)*C46,0) +
+IFERROR(VLOOKUP(D47,Grade!$A$2:$B$10,2)*C47,0) +
+IFERROR(VLOOKUP(D48,Grade!$A$2:$B$10,2)*C48,0) +
+IFERROR(VLOOKUP(D49,Grade!$A$2:$B$10,2)*C49,0) +
+IFERROR(VLOOKUP(D50,Grade!$A$2:$B$10,2)*C50,0) +
+IFERROR(VLOOKUP(D51,Grade!$A$2:$B$10,2)*C51,0)) / C52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F52" s="103"/>
-      <c r="G52" s="102"/>
+      <c r="G52" s="102" t="e">
+        <f>((C14*E14)+(L14*N14)+(C26*E26)+(L26*N26)+(C38*E38)+(L38*N38)+(C52*E52))/(C14+L14+C26+L26+C38+L38+C52)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H52" s="103"/>
       <c r="I52" s="25"/>
       <c r="J52" s="42"/>
@@ -4613,10 +4814,23 @@
       <c r="M52" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="N52" s="102"/>
+      <c r="N52" s="102" t="e">
+        <f>(IFERROR(VLOOKUP(M41,Grade!$A$2:$B$10,2)*L41,0) + IFERROR(VLOOKUP(M42,Grade!$A$2:$B$10,2)*L42,0) + IFERROR(VLOOKUP(M43,Grade!$A$2:$B$10,2)*L43,0) + IFERROR(VLOOKUP(M44,Grade!$A$2:$B$10,2)*L44,0) +
+IFERROR(VLOOKUP(M45,Grade!$A$2:$B$10,2)*L45,0) +
+IFERROR(VLOOKUP(M46,Grade!$A$2:$B$10,2)*L46,0) +
+IFERROR(VLOOKUP(M47,Grade!$A$2:$B$10,2)*L47,0) +
+IFERROR(VLOOKUP(M48,Grade!$A$2:$B$10,2)*L48,0) +
+IFERROR(VLOOKUP(M49,Grade!$A$2:$B$10,2)*L49,0) +
+IFERROR(VLOOKUP(M50,Grade!$A$2:$B$10,2)*L50,0) +
+IFERROR(VLOOKUP(M51,Grade!$A$2:$B$10,2)*L51,0)) / L52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O52" s="103"/>
-      <c r="P52" s="102"/>
-      <c r="Q52" s="103"/>
+      <c r="P52" s="124" t="e">
+        <f>((C14*E14)+(L14*N14)+(C26*E26)+(L26*N26)+(C38*E38)+(L38*N38)+(C52*E52)+(L52*N52))/(C14+L14+C26+L26+C38+L38+C52+L52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q52" s="125"/>
       <c r="R52" s="68"/>
       <c r="S52" s="69"/>
       <c r="T52" s="68"/>
@@ -6154,4 +6368,107 @@
   <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="117" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="117"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="116"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="119">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="119">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="119">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="119">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="119">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>